--- a/csenergy/obsolete/calculos pruebas.xlsx
+++ b/csenergy/obsolete/calculos pruebas.xlsx
@@ -102,7 +102,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -164,7 +164,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -402,11 +402,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588035752"/>
-        <c:axId val="588036536"/>
+        <c:axId val="606344424"/>
+        <c:axId val="606337760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588035752"/>
+        <c:axId val="606344424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,12 +463,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588036536"/>
+        <c:crossAx val="606337760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588036536"/>
+        <c:axId val="606337760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +525,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588035752"/>
+        <c:crossAx val="606344424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -787,11 +787,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="941674576"/>
-        <c:axId val="941676144"/>
+        <c:axId val="606338152"/>
+        <c:axId val="606341288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="941674576"/>
+        <c:axId val="606338152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="425"/>
@@ -849,12 +849,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="941676144"/>
+        <c:crossAx val="606341288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="941676144"/>
+        <c:axId val="606341288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="941674576"/>
+        <c:crossAx val="606338152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2407,7 +2407,7 @@
   <dimension ref="A5:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B10" s="4">
         <f>1/((1/B5)+((B6*LN(B6/B7))/(2*B8)))</f>
-        <v>0.99989363644350049</v>
+        <v>2274.2354824208755</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2510,7 +2510,7 @@
         <v>399.99878000000001</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F78" si="0">3*E15^4-4*$B$17*E15^3+($B$16^4+$B$15*($B$16-$B$17)/($B$14*$B$13))</f>
+        <f t="shared" ref="F15:F56" si="0">3*E15^4-4*$B$17*E15^3+($B$16^4+$B$15*($B$16-$B$17)/($B$14*$B$13))</f>
         <v>-1093.8567047119141</v>
       </c>
     </row>
